--- a/data/large/data1_4.xlsx
+++ b/data/large/data1_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\UCSP_code\large_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6710BF9-9978-4399-B52B-490217CEF91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710F70DE-579B-4274-B675-DC461BDD0956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="11170" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CL" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="624">
   <si>
     <t>id</t>
   </si>
@@ -1197,9 +1197,6 @@
     <t>L_68</t>
   </si>
   <si>
-    <t>-1,1,1,0,0</t>
-  </si>
-  <si>
     <t>0,-1,0,0,0</t>
   </si>
   <si>
@@ -1209,33 +1206,18 @@
     <t>0,1,0,1,0</t>
   </si>
   <si>
-    <t>-1,0,1,0,-1</t>
-  </si>
-  <si>
     <t>0,0,0,0,0</t>
   </si>
   <si>
     <t>0,0,0,0,-1</t>
   </si>
   <si>
-    <t>1,1,1,0,0</t>
-  </si>
-  <si>
-    <t>1,0,1,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,1,1</t>
   </si>
   <si>
-    <t>-1,0,-1,-1,0</t>
-  </si>
-  <si>
     <t>0,1,0,0,0</t>
   </si>
   <si>
-    <t>0,0,1,1,0</t>
-  </si>
-  <si>
     <t>-1,0,0,0,1</t>
   </si>
   <si>
@@ -1260,138 +1242,60 @@
     <t>0,1,1,0,0</t>
   </si>
   <si>
-    <t>0,0,1,-1,1</t>
-  </si>
-  <si>
-    <t>0,1,0,1,1</t>
-  </si>
-  <si>
     <t>1,0,0,-1,1</t>
   </si>
   <si>
     <t>0,0,1,0,1</t>
   </si>
   <si>
-    <t>1,1,0,0,1</t>
-  </si>
-  <si>
     <t>0,0,-1,1,1</t>
   </si>
   <si>
-    <t>0,-1,-1,1,1</t>
-  </si>
-  <si>
     <t>0,-1,1,0,0</t>
   </si>
   <si>
     <t>0,1,0,-1,0</t>
   </si>
   <si>
-    <t>1,0,1,1,1</t>
-  </si>
-  <si>
     <t>0,0,0,1,-1</t>
   </si>
   <si>
     <t>0,0,-1,0,0</t>
   </si>
   <si>
-    <t>1,0,1,-1,0</t>
-  </si>
-  <si>
-    <t>0,-1,1,1,1</t>
-  </si>
-  <si>
-    <t>-1,0,0,-1,0</t>
-  </si>
-  <si>
-    <t>-1,0,-1,1,0</t>
-  </si>
-  <si>
     <t>0,0,0,0,1</t>
   </si>
   <si>
     <t>like1</t>
   </si>
   <si>
-    <t>1,1,0,0,0</t>
-  </si>
-  <si>
-    <t>1,0,0,1,0</t>
-  </si>
-  <si>
     <t>0,1,0,0,1</t>
   </si>
   <si>
-    <t>like2</t>
-  </si>
-  <si>
     <t>1,0,1,0,1</t>
   </si>
   <si>
     <t>1,0,0,1,1</t>
   </si>
   <si>
-    <t>1,1,0,1,0</t>
-  </si>
-  <si>
-    <t>1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,-1,-1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,-1,0,0</t>
   </si>
   <si>
-    <t>-1,1,0,-1,0</t>
-  </si>
-  <si>
-    <t>0,0,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>1,-1,-1,0,0</t>
-  </si>
-  <si>
     <t>0,0,1,-1,0</t>
   </si>
   <si>
     <t>-1,0,0,-1,-1</t>
   </si>
   <si>
-    <t>0,1,1,0,1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,0</t>
   </si>
   <si>
-    <t>1,1,-1,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,-1,1</t>
   </si>
   <si>
-    <t>1,-1,-1,1,1</t>
-  </si>
-  <si>
-    <t>0,-1,-1,1,0</t>
-  </si>
-  <si>
     <t>0,-1,0,-1,1</t>
   </si>
   <si>
-    <t>-1,-1,0,1,1</t>
-  </si>
-  <si>
-    <t>1,1,-1,1,0</t>
-  </si>
-  <si>
-    <t>1,0,0,-1,-1</t>
-  </si>
-  <si>
     <t>-1,0,1,0,0</t>
   </si>
   <si>
@@ -1404,55 +1308,25 @@
     <t>-1,0,1,0,1</t>
   </si>
   <si>
-    <t>0,0,-1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,0,-1,0</t>
-  </si>
-  <si>
-    <t>0,0,1,1,-1</t>
-  </si>
-  <si>
     <t>0,-1,1,0,1</t>
   </si>
   <si>
     <t>0,0,0,-1,-1</t>
   </si>
   <si>
-    <t>-1,0,0,1,1</t>
-  </si>
-  <si>
-    <t>0,1,1,1,-1</t>
-  </si>
-  <si>
     <t>0,1,1,-1,0</t>
   </si>
   <si>
-    <t>1,1,0,-1,0</t>
-  </si>
-  <si>
     <t>-1,0,-1,0,1</t>
   </si>
   <si>
     <t>1,0,0,0,-1</t>
   </si>
   <si>
-    <t>0,-1,1,-1,0</t>
-  </si>
-  <si>
     <t>-1,-1,0,0,0</t>
   </si>
   <si>
-    <t>1,0,0,1,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,0,1</t>
-  </si>
-  <si>
-    <t>1,-1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,1,-1,0,-1</t>
   </si>
   <si>
     <t>like3</t>
@@ -1950,6 +1824,123 @@
   <si>
     <t>lc,mc</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,0,1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,0,1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,-1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,-1,-1,0</t>
+  </si>
+  <si>
+    <t>0,1,1,1,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,1,0</t>
+  </si>
+  <si>
+    <t>-1,0,0,1,-1</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>0,1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>1,0,1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,1,-1,1</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,0,-1</t>
+  </si>
+  <si>
+    <t>1,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,1,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>1,1,0,1,-1</t>
+  </si>
+  <si>
+    <t>1,0,1,1,1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,0,1,1</t>
+  </si>
+  <si>
+    <t>1,-1,1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,-1,1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,0,1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,-1,1,-1</t>
   </si>
 </sst>
 </file>
@@ -2408,7 +2399,7 @@
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>566</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2422,7 +2413,7 @@
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>567</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2436,7 +2427,7 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>568</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2450,7 +2441,7 @@
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>569</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2464,7 +2455,7 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>570</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2478,7 +2469,7 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>571</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2492,7 +2483,7 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>572</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2506,7 +2497,7 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>573</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2520,7 +2511,7 @@
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>574</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2534,7 +2525,7 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>575</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2548,7 +2539,7 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>576</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2562,7 +2553,7 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>577</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2576,7 +2567,7 @@
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>578</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2590,7 +2581,7 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>579</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2604,7 +2595,7 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>580</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2618,7 +2609,7 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>581</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2632,7 +2623,7 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>582</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2646,7 +2637,7 @@
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>583</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2660,7 +2651,7 @@
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>584</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2674,7 +2665,7 @@
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>585</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2688,7 +2679,7 @@
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>586</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2702,7 +2693,7 @@
         <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>587</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2716,7 +2707,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>588</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2730,7 +2721,7 @@
         <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>589</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2744,7 +2735,7 @@
         <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>590</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2758,7 +2749,7 @@
         <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>591</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2772,7 +2763,7 @@
         <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>592</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2786,7 +2777,7 @@
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>593</v>
+        <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2800,7 +2791,7 @@
         <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>594</v>
+        <v>552</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2814,7 +2805,7 @@
         <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>595</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2828,7 +2819,7 @@
         <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>596</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2842,7 +2833,7 @@
         <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>597</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2856,7 +2847,7 @@
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>598</v>
+        <v>556</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2870,7 +2861,7 @@
         <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>599</v>
+        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2884,7 +2875,7 @@
         <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>600</v>
+        <v>558</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2898,7 +2889,7 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>601</v>
+        <v>559</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2912,7 +2903,7 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>602</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2926,7 +2917,7 @@
         <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>603</v>
+        <v>561</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2940,7 +2931,7 @@
         <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>604</v>
+        <v>562</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2954,7 +2945,7 @@
         <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>605</v>
+        <v>563</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2968,7 +2959,7 @@
         <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>606</v>
+        <v>564</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2982,7 +2973,7 @@
         <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>607</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2996,7 +2987,7 @@
         <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>608</v>
+        <v>566</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3010,7 +3001,7 @@
         <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>609</v>
+        <v>567</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3024,7 +3015,7 @@
         <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3038,7 +3029,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>611</v>
+        <v>569</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3052,7 +3043,7 @@
         <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>612</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -3105,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3220,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>560</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3545,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>561</v>
+        <v>519</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3646,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>562</v>
+        <v>520</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3705,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>563</v>
+        <v>521</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3946,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>564</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -4004,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>160</v>
@@ -4019,7 +4010,7 @@
         <v>323</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>613</v>
+        <v>571</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -4316,7 +4307,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>161</v>
@@ -4357,7 +4348,7 @@
         <v>323</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -5512,7 +5503,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>565</v>
+        <v>523</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>171</v>
@@ -5642,7 +5633,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>614</v>
+        <v>572</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>344</v>
@@ -5668,7 +5659,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>615</v>
+        <v>573</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>344</v>
@@ -5720,7 +5711,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>614</v>
+        <v>572</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>345</v>
@@ -5746,7 +5737,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>615</v>
+        <v>573</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>345</v>
@@ -5824,7 +5815,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>614</v>
+        <v>572</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>346</v>
@@ -5850,7 +5841,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>615</v>
+        <v>573</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>346</v>
@@ -5928,7 +5919,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>616</v>
+        <v>574</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>344</v>
@@ -5980,7 +5971,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>616</v>
+        <v>574</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>345</v>
@@ -6058,7 +6049,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>616</v>
+        <v>574</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>346</v>
@@ -6359,7 +6350,7 @@
         <v>324</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="H92" s="3">
         <v>1</v>
@@ -6526,7 +6517,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>617</v>
+        <v>575</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>348</v>
@@ -6541,7 +6532,7 @@
         <v>324</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="H99" s="6">
         <v>1</v>
@@ -6552,7 +6543,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>618</v>
+        <v>576</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>348</v>
@@ -6567,7 +6558,7 @@
         <v>324</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="H100" s="6">
         <v>1</v>
@@ -6578,7 +6569,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>619</v>
+        <v>577</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>348</v>
@@ -6593,7 +6584,7 @@
         <v>324</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="H101" s="6">
         <v>1</v>
@@ -6890,7 +6881,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>353</v>
@@ -6905,7 +6896,7 @@
         <v>324</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="H113" s="6">
         <v>1</v>
@@ -6916,7 +6907,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>622</v>
+        <v>580</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>353</v>
@@ -6931,7 +6922,7 @@
         <v>324</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="H114" s="6">
         <v>1</v>
@@ -6942,7 +6933,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>623</v>
+        <v>581</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>353</v>
@@ -6957,7 +6948,7 @@
         <v>324</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="H115" s="6">
         <v>1</v>
@@ -9984,7 +9975,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>624</v>
+        <v>582</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>223</v>
@@ -10325,16 +10316,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.08984375" customWidth="1"/>
-    <col min="3" max="3" width="36.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
     <col min="4" max="4" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10345,11 +10336,11 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>327</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10360,10 +10351,10 @@
         <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="D2" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10374,10 +10365,10 @@
         <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="D3" t="s">
-        <v>483</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -10388,10 +10379,10 @@
         <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D4" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -10402,10 +10393,10 @@
         <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D5" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -10416,10 +10407,10 @@
         <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="D6" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -10430,10 +10421,10 @@
         <v>328</v>
       </c>
       <c r="C7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D7" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -10444,10 +10435,10 @@
         <v>329</v>
       </c>
       <c r="C8" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="D8" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -10458,10 +10449,10 @@
         <v>330</v>
       </c>
       <c r="C9" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D9" t="s">
-        <v>489</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -10472,10 +10463,10 @@
         <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D10" t="s">
-        <v>490</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -10486,10 +10477,10 @@
         <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="D11" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -10500,10 +10491,10 @@
         <v>176</v>
       </c>
       <c r="C12" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="D12" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -10514,10 +10505,10 @@
         <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>399</v>
+        <v>585</v>
       </c>
       <c r="D13" t="s">
-        <v>493</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -10528,10 +10519,10 @@
         <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D14" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -10542,10 +10533,10 @@
         <v>179</v>
       </c>
       <c r="C15" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D15" t="s">
-        <v>495</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -10556,10 +10547,10 @@
         <v>180</v>
       </c>
       <c r="C16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D16" t="s">
-        <v>496</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -10570,10 +10561,10 @@
         <v>181</v>
       </c>
       <c r="C17" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D17" t="s">
-        <v>497</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -10584,10 +10575,10 @@
         <v>182</v>
       </c>
       <c r="C18" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="D18" t="s">
-        <v>498</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -10598,10 +10589,10 @@
         <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D19" t="s">
-        <v>499</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -10612,10 +10603,10 @@
         <v>184</v>
       </c>
       <c r="C20" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="D20" t="s">
-        <v>500</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -10626,10 +10617,10 @@
         <v>185</v>
       </c>
       <c r="C21" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D21" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -10640,10 +10631,10 @@
         <v>186</v>
       </c>
       <c r="C22" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D22" t="s">
-        <v>502</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -10654,10 +10645,10 @@
         <v>187</v>
       </c>
       <c r="C23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D23" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -10668,10 +10659,10 @@
         <v>188</v>
       </c>
       <c r="C24" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D24" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -10682,10 +10673,10 @@
         <v>189</v>
       </c>
       <c r="C25" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="D25" t="s">
-        <v>505</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -10696,10 +10687,10 @@
         <v>190</v>
       </c>
       <c r="C26" t="s">
-        <v>406</v>
+        <v>586</v>
       </c>
       <c r="D26" t="s">
-        <v>506</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -10710,10 +10701,10 @@
         <v>191</v>
       </c>
       <c r="C27" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D27" t="s">
-        <v>507</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -10724,10 +10715,10 @@
         <v>192</v>
       </c>
       <c r="C28" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="D28" t="s">
-        <v>508</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -10738,10 +10729,10 @@
         <v>193</v>
       </c>
       <c r="C29" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="D29" t="s">
-        <v>509</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -10752,10 +10743,10 @@
         <v>194</v>
       </c>
       <c r="C30" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="D30" t="s">
-        <v>510</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -10766,10 +10757,10 @@
         <v>195</v>
       </c>
       <c r="C31" t="s">
-        <v>410</v>
+        <v>587</v>
       </c>
       <c r="D31" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -10780,10 +10771,10 @@
         <v>331</v>
       </c>
       <c r="C32" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="D32" t="s">
-        <v>512</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -10794,10 +10785,10 @@
         <v>196</v>
       </c>
       <c r="C33" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D33" t="s">
-        <v>513</v>
+        <v>471</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -10808,10 +10799,10 @@
         <v>197</v>
       </c>
       <c r="C34" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D34" t="s">
-        <v>514</v>
+        <v>472</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -10822,10 +10813,10 @@
         <v>198</v>
       </c>
       <c r="C35" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="D35" t="s">
-        <v>515</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -10836,10 +10827,10 @@
         <v>332</v>
       </c>
       <c r="C36" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="D36" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -10850,10 +10841,10 @@
         <v>199</v>
       </c>
       <c r="C37" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D37" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -10864,10 +10855,10 @@
         <v>200</v>
       </c>
       <c r="C38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D38" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -10878,10 +10869,10 @@
         <v>201</v>
       </c>
       <c r="C39" t="s">
-        <v>408</v>
+        <v>588</v>
       </c>
       <c r="D39" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -10892,10 +10883,10 @@
         <v>333</v>
       </c>
       <c r="C40" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D40" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -10906,10 +10897,10 @@
         <v>202</v>
       </c>
       <c r="C41" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="D41" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -10920,10 +10911,10 @@
         <v>203</v>
       </c>
       <c r="C42" t="s">
-        <v>392</v>
+        <v>589</v>
       </c>
       <c r="D42" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -10934,10 +10925,10 @@
         <v>204</v>
       </c>
       <c r="C43" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="D43" t="s">
-        <v>523</v>
+        <v>481</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -10948,10 +10939,10 @@
         <v>205</v>
       </c>
       <c r="C44" t="s">
-        <v>404</v>
+        <v>590</v>
       </c>
       <c r="D44" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -10962,10 +10953,10 @@
         <v>206</v>
       </c>
       <c r="C45" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D45" t="s">
-        <v>525</v>
+        <v>483</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -10979,7 +10970,7 @@
         <v>414</v>
       </c>
       <c r="D46" t="s">
-        <v>526</v>
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -10990,10 +10981,10 @@
         <v>208</v>
       </c>
       <c r="C47" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D47" t="s">
-        <v>527</v>
+        <v>485</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -11004,10 +10995,10 @@
         <v>209</v>
       </c>
       <c r="C48" t="s">
-        <v>401</v>
+        <v>591</v>
       </c>
       <c r="D48" t="s">
-        <v>528</v>
+        <v>486</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -11018,10 +11009,10 @@
         <v>210</v>
       </c>
       <c r="C49" t="s">
-        <v>409</v>
+        <v>592</v>
       </c>
       <c r="D49" t="s">
-        <v>529</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -11032,10 +11023,10 @@
         <v>211</v>
       </c>
       <c r="C50" t="s">
-        <v>415</v>
+        <v>593</v>
       </c>
       <c r="D50" t="s">
-        <v>530</v>
+        <v>488</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -11046,10 +11037,10 @@
         <v>212</v>
       </c>
       <c r="C51" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="D51" t="s">
-        <v>531</v>
+        <v>489</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -11060,10 +11051,10 @@
         <v>213</v>
       </c>
       <c r="C52" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="D52" t="s">
-        <v>532</v>
+        <v>490</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -11074,10 +11065,10 @@
         <v>214</v>
       </c>
       <c r="C53" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="D53" t="s">
-        <v>533</v>
+        <v>491</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -11088,10 +11079,10 @@
         <v>215</v>
       </c>
       <c r="C54" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="D54" t="s">
-        <v>534</v>
+        <v>492</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -11102,10 +11093,10 @@
         <v>216</v>
       </c>
       <c r="C55" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="D55" t="s">
-        <v>535</v>
+        <v>493</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -11116,10 +11107,10 @@
         <v>217</v>
       </c>
       <c r="C56" t="s">
-        <v>419</v>
+        <v>587</v>
       </c>
       <c r="D56" t="s">
-        <v>536</v>
+        <v>494</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -11130,10 +11121,10 @@
         <v>334</v>
       </c>
       <c r="C57" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D57" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -11144,10 +11135,10 @@
         <v>218</v>
       </c>
       <c r="C58" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="D58" t="s">
-        <v>538</v>
+        <v>496</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -11158,10 +11149,10 @@
         <v>219</v>
       </c>
       <c r="C59" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="D59" t="s">
-        <v>539</v>
+        <v>497</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -11172,10 +11163,10 @@
         <v>220</v>
       </c>
       <c r="C60" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D60" t="s">
-        <v>540</v>
+        <v>498</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -11186,10 +11177,10 @@
         <v>221</v>
       </c>
       <c r="C61" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="D61" t="s">
-        <v>541</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -11200,10 +11191,10 @@
         <v>335</v>
       </c>
       <c r="C62" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D62" t="s">
-        <v>542</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -11214,10 +11205,10 @@
         <v>336</v>
       </c>
       <c r="C63" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D63" t="s">
-        <v>543</v>
+        <v>501</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -11228,10 +11219,10 @@
         <v>222</v>
       </c>
       <c r="C64" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D64" t="s">
-        <v>544</v>
+        <v>502</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -11242,10 +11233,10 @@
         <v>223</v>
       </c>
       <c r="C65" t="s">
-        <v>408</v>
+        <v>593</v>
       </c>
       <c r="D65" t="s">
-        <v>545</v>
+        <v>503</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -11256,10 +11247,10 @@
         <v>224</v>
       </c>
       <c r="C66" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="D66" t="s">
-        <v>546</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -11270,10 +11261,10 @@
         <v>225</v>
       </c>
       <c r="C67" t="s">
-        <v>396</v>
+        <v>594</v>
       </c>
       <c r="D67" t="s">
-        <v>547</v>
+        <v>505</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -11284,10 +11275,10 @@
         <v>226</v>
       </c>
       <c r="C68" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D68" t="s">
-        <v>548</v>
+        <v>506</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -11298,10 +11289,10 @@
         <v>227</v>
       </c>
       <c r="C69" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="D69" t="s">
-        <v>549</v>
+        <v>507</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -11312,10 +11303,10 @@
         <v>160</v>
       </c>
       <c r="C70" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D70" t="s">
-        <v>550</v>
+        <v>508</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -11326,10 +11317,10 @@
         <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D71" t="s">
-        <v>551</v>
+        <v>509</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -11340,10 +11331,10 @@
         <v>162</v>
       </c>
       <c r="C72" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="D72" t="s">
-        <v>552</v>
+        <v>510</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -11354,10 +11345,10 @@
         <v>163</v>
       </c>
       <c r="C73" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="D73" t="s">
-        <v>553</v>
+        <v>511</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -11368,10 +11359,10 @@
         <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D74" t="s">
-        <v>554</v>
+        <v>512</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -11382,10 +11373,10 @@
         <v>165</v>
       </c>
       <c r="C75" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D75" t="s">
-        <v>555</v>
+        <v>513</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -11396,10 +11387,10 @@
         <v>166</v>
       </c>
       <c r="C76" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="D76" t="s">
-        <v>556</v>
+        <v>514</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -11410,10 +11401,10 @@
         <v>167</v>
       </c>
       <c r="C77" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="D77" t="s">
-        <v>557</v>
+        <v>515</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -11424,10 +11415,225 @@
         <v>168</v>
       </c>
       <c r="C78" t="s">
+        <v>393</v>
+      </c>
+      <c r="D78" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
         <v>392</v>
       </c>
-      <c r="D78" t="s">
-        <v>558</v>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -11440,15 +11646,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.08984375" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -11458,15 +11662,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="C1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1" s="4"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -11477,13 +11679,10 @@
         <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E2" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -11494,13 +11693,10 @@
         <v>256</v>
       </c>
       <c r="C3" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="D3" t="s">
-        <v>439</v>
-      </c>
-      <c r="E3" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -11511,13 +11707,10 @@
         <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D4" t="s">
-        <v>435</v>
-      </c>
-      <c r="E4" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11528,13 +11721,10 @@
         <v>258</v>
       </c>
       <c r="C5" t="s">
-        <v>408</v>
+        <v>600</v>
       </c>
       <c r="D5" t="s">
-        <v>393</v>
-      </c>
-      <c r="E5" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -11545,13 +11735,10 @@
         <v>259</v>
       </c>
       <c r="C6" t="s">
-        <v>395</v>
+        <v>601</v>
       </c>
       <c r="D6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E6" t="s">
-        <v>479</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -11562,13 +11749,10 @@
         <v>260</v>
       </c>
       <c r="C7" t="s">
-        <v>392</v>
+        <v>594</v>
       </c>
       <c r="D7" t="s">
-        <v>440</v>
-      </c>
-      <c r="E7" t="s">
-        <v>478</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -11579,13 +11763,10 @@
         <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E8" t="s">
-        <v>479</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -11596,13 +11777,10 @@
         <v>337</v>
       </c>
       <c r="C9" t="s">
-        <v>395</v>
+        <v>602</v>
       </c>
       <c r="D9" t="s">
-        <v>404</v>
-      </c>
-      <c r="E9" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -11613,13 +11791,10 @@
         <v>262</v>
       </c>
       <c r="C10" t="s">
-        <v>396</v>
+        <v>603</v>
       </c>
       <c r="D10" t="s">
-        <v>413</v>
-      </c>
-      <c r="E10" t="s">
-        <v>478</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -11630,13 +11805,10 @@
         <v>263</v>
       </c>
       <c r="C11" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D11" t="s">
-        <v>441</v>
-      </c>
-      <c r="E11" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -11647,13 +11819,10 @@
         <v>264</v>
       </c>
       <c r="C12" t="s">
-        <v>442</v>
+        <v>604</v>
       </c>
       <c r="D12" t="s">
-        <v>395</v>
-      </c>
-      <c r="E12" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -11664,13 +11833,10 @@
         <v>265</v>
       </c>
       <c r="C13" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="D13" t="s">
-        <v>395</v>
-      </c>
-      <c r="E13" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -11681,13 +11847,10 @@
         <v>266</v>
       </c>
       <c r="C14" t="s">
-        <v>408</v>
+        <v>594</v>
       </c>
       <c r="D14" t="s">
-        <v>405</v>
-      </c>
-      <c r="E14" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -11698,13 +11861,10 @@
         <v>267</v>
       </c>
       <c r="C15" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D15" t="s">
-        <v>443</v>
-      </c>
-      <c r="E15" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -11715,16 +11875,13 @@
         <v>268</v>
       </c>
       <c r="C16" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D16" t="s">
-        <v>444</v>
-      </c>
-      <c r="E16" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11732,16 +11889,13 @@
         <v>269</v>
       </c>
       <c r="C17" t="s">
-        <v>445</v>
+        <v>392</v>
       </c>
       <c r="D17" t="s">
-        <v>406</v>
-      </c>
-      <c r="E17" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11749,16 +11903,13 @@
         <v>270</v>
       </c>
       <c r="C18" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D18" t="s">
-        <v>446</v>
-      </c>
-      <c r="E18" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11766,16 +11917,13 @@
         <v>271</v>
       </c>
       <c r="C19" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D19" t="s">
-        <v>413</v>
-      </c>
-      <c r="E19" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11783,16 +11931,13 @@
         <v>272</v>
       </c>
       <c r="C20" t="s">
-        <v>427</v>
+        <v>605</v>
       </c>
       <c r="D20" t="s">
-        <v>408</v>
-      </c>
-      <c r="E20" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11800,16 +11945,13 @@
         <v>273</v>
       </c>
       <c r="C21" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D21" t="s">
-        <v>447</v>
-      </c>
-      <c r="E21" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11817,16 +11959,13 @@
         <v>274</v>
       </c>
       <c r="C22" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D22" t="s">
-        <v>448</v>
-      </c>
-      <c r="E22" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11834,16 +11973,13 @@
         <v>275</v>
       </c>
       <c r="C23" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D23" t="s">
-        <v>449</v>
-      </c>
-      <c r="E23" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11851,16 +11987,13 @@
         <v>276</v>
       </c>
       <c r="C24" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="D24" t="s">
-        <v>395</v>
-      </c>
-      <c r="E24" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11868,16 +12001,13 @@
         <v>277</v>
       </c>
       <c r="C25" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D25" t="s">
-        <v>404</v>
-      </c>
-      <c r="E25" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11885,16 +12015,13 @@
         <v>278</v>
       </c>
       <c r="C26" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D26" t="s">
-        <v>434</v>
-      </c>
-      <c r="E26" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11902,16 +12029,13 @@
         <v>279</v>
       </c>
       <c r="C27" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D27" t="s">
-        <v>450</v>
-      </c>
-      <c r="E27" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11919,16 +12043,13 @@
         <v>280</v>
       </c>
       <c r="C28" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D28" t="s">
-        <v>431</v>
-      </c>
-      <c r="E28" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11936,16 +12057,13 @@
         <v>281</v>
       </c>
       <c r="C29" t="s">
-        <v>451</v>
+        <v>595</v>
       </c>
       <c r="D29" t="s">
-        <v>405</v>
-      </c>
-      <c r="E29" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11953,16 +12071,13 @@
         <v>282</v>
       </c>
       <c r="C30" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="D30" t="s">
-        <v>395</v>
-      </c>
-      <c r="E30" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11970,16 +12085,13 @@
         <v>283</v>
       </c>
       <c r="C31" t="s">
-        <v>401</v>
+        <v>606</v>
       </c>
       <c r="D31" t="s">
-        <v>436</v>
-      </c>
-      <c r="E31" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11987,16 +12099,13 @@
         <v>284</v>
       </c>
       <c r="C32" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="D32" t="s">
-        <v>453</v>
-      </c>
-      <c r="E32" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -12004,16 +12113,13 @@
         <v>285</v>
       </c>
       <c r="C33" t="s">
-        <v>454</v>
+        <v>390</v>
       </c>
       <c r="D33" t="s">
-        <v>455</v>
-      </c>
-      <c r="E33" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -12021,16 +12127,13 @@
         <v>286</v>
       </c>
       <c r="C34" t="s">
-        <v>395</v>
+        <v>607</v>
       </c>
       <c r="D34" t="s">
-        <v>393</v>
-      </c>
-      <c r="E34" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -12038,16 +12141,13 @@
         <v>287</v>
       </c>
       <c r="C35" t="s">
-        <v>446</v>
+        <v>608</v>
       </c>
       <c r="D35" t="s">
-        <v>416</v>
-      </c>
-      <c r="E35" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12055,16 +12155,13 @@
         <v>288</v>
       </c>
       <c r="C36" t="s">
-        <v>391</v>
+        <v>609</v>
       </c>
       <c r="D36" t="s">
-        <v>433</v>
-      </c>
-      <c r="E36" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -12072,16 +12169,13 @@
         <v>289</v>
       </c>
       <c r="C37" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D37" t="s">
-        <v>456</v>
-      </c>
-      <c r="E37" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -12089,16 +12183,13 @@
         <v>290</v>
       </c>
       <c r="C38" t="s">
-        <v>405</v>
+        <v>610</v>
       </c>
       <c r="D38" t="s">
-        <v>422</v>
-      </c>
-      <c r="E38" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12106,16 +12197,13 @@
         <v>291</v>
       </c>
       <c r="C39" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D39" t="s">
-        <v>405</v>
-      </c>
-      <c r="E39" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12123,16 +12211,13 @@
         <v>292</v>
       </c>
       <c r="C40" t="s">
-        <v>392</v>
+        <v>611</v>
       </c>
       <c r="D40" t="s">
-        <v>457</v>
-      </c>
-      <c r="E40" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12140,16 +12225,13 @@
         <v>293</v>
       </c>
       <c r="C41" t="s">
-        <v>458</v>
+        <v>612</v>
       </c>
       <c r="D41" t="s">
-        <v>401</v>
-      </c>
-      <c r="E41" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12157,16 +12239,13 @@
         <v>294</v>
       </c>
       <c r="C42" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="D42" t="s">
-        <v>391</v>
-      </c>
-      <c r="E42" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12174,16 +12253,13 @@
         <v>295</v>
       </c>
       <c r="C43" t="s">
-        <v>414</v>
+        <v>613</v>
       </c>
       <c r="D43" t="s">
-        <v>405</v>
-      </c>
-      <c r="E43" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12191,16 +12267,13 @@
         <v>297</v>
       </c>
       <c r="C44" t="s">
-        <v>459</v>
+        <v>401</v>
       </c>
       <c r="D44" t="s">
-        <v>460</v>
-      </c>
-      <c r="E44" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -12208,16 +12281,13 @@
         <v>298</v>
       </c>
       <c r="C45" t="s">
-        <v>461</v>
+        <v>614</v>
       </c>
       <c r="D45" t="s">
-        <v>462</v>
-      </c>
-      <c r="E45" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -12225,16 +12295,13 @@
         <v>299</v>
       </c>
       <c r="C46" t="s">
-        <v>405</v>
+        <v>615</v>
       </c>
       <c r="D46" t="s">
-        <v>427</v>
-      </c>
-      <c r="E46" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -12242,16 +12309,13 @@
         <v>300</v>
       </c>
       <c r="C47" t="s">
-        <v>401</v>
+        <v>616</v>
       </c>
       <c r="D47" t="s">
-        <v>395</v>
-      </c>
-      <c r="E47" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12259,16 +12323,13 @@
         <v>301</v>
       </c>
       <c r="C48" t="s">
-        <v>408</v>
+        <v>617</v>
       </c>
       <c r="D48" t="s">
-        <v>401</v>
-      </c>
-      <c r="E48" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12276,16 +12337,13 @@
         <v>302</v>
       </c>
       <c r="C49" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="D49" t="s">
-        <v>406</v>
-      </c>
-      <c r="E49" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12293,16 +12351,13 @@
         <v>303</v>
       </c>
       <c r="C50" t="s">
-        <v>460</v>
+        <v>391</v>
       </c>
       <c r="D50" t="s">
-        <v>434</v>
-      </c>
-      <c r="E50" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12310,16 +12365,13 @@
         <v>304</v>
       </c>
       <c r="C51" t="s">
-        <v>404</v>
+        <v>590</v>
       </c>
       <c r="D51" t="s">
-        <v>408</v>
-      </c>
-      <c r="E51" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12327,16 +12379,13 @@
         <v>305</v>
       </c>
       <c r="C52" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D52" t="s">
-        <v>429</v>
-      </c>
-      <c r="E52" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12344,16 +12393,13 @@
         <v>306</v>
       </c>
       <c r="C53" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="D53" t="s">
-        <v>401</v>
-      </c>
-      <c r="E53" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12361,16 +12407,13 @@
         <v>307</v>
       </c>
       <c r="C54" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="D54" t="s">
-        <v>421</v>
-      </c>
-      <c r="E54" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -12378,16 +12421,13 @@
         <v>308</v>
       </c>
       <c r="C55" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="D55" t="s">
-        <v>393</v>
-      </c>
-      <c r="E55" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -12395,16 +12435,13 @@
         <v>309</v>
       </c>
       <c r="C56" t="s">
-        <v>395</v>
+        <v>603</v>
       </c>
       <c r="D56" t="s">
-        <v>464</v>
-      </c>
-      <c r="E56" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -12412,16 +12449,13 @@
         <v>310</v>
       </c>
       <c r="C57" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="D57" t="s">
-        <v>465</v>
-      </c>
-      <c r="E57" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -12429,16 +12463,13 @@
         <v>311</v>
       </c>
       <c r="C58" t="s">
-        <v>461</v>
+        <v>618</v>
       </c>
       <c r="D58" t="s">
-        <v>402</v>
-      </c>
-      <c r="E58" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -12446,16 +12477,13 @@
         <v>254</v>
       </c>
       <c r="C59" t="s">
-        <v>418</v>
+        <v>619</v>
       </c>
       <c r="D59" t="s">
-        <v>401</v>
-      </c>
-      <c r="E59" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -12463,16 +12491,13 @@
         <v>312</v>
       </c>
       <c r="C60" t="s">
-        <v>466</v>
+        <v>620</v>
       </c>
       <c r="D60" t="s">
-        <v>408</v>
-      </c>
-      <c r="E60" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -12480,16 +12505,13 @@
         <v>313</v>
       </c>
       <c r="C61" t="s">
-        <v>399</v>
+        <v>607</v>
       </c>
       <c r="D61" t="s">
-        <v>467</v>
-      </c>
-      <c r="E61" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -12497,16 +12519,13 @@
         <v>315</v>
       </c>
       <c r="C62" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D62" t="s">
-        <v>430</v>
-      </c>
-      <c r="E62" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -12514,16 +12533,13 @@
         <v>316</v>
       </c>
       <c r="C63" t="s">
-        <v>393</v>
+        <v>621</v>
       </c>
       <c r="D63" t="s">
-        <v>429</v>
-      </c>
-      <c r="E63" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -12531,16 +12547,13 @@
         <v>317</v>
       </c>
       <c r="C64" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="D64" t="s">
-        <v>425</v>
-      </c>
-      <c r="E64" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -12548,16 +12561,13 @@
         <v>320</v>
       </c>
       <c r="C65" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="D65" t="s">
-        <v>408</v>
-      </c>
-      <c r="E65" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -12565,16 +12575,13 @@
         <v>318</v>
       </c>
       <c r="C66" t="s">
-        <v>391</v>
+        <v>622</v>
       </c>
       <c r="D66" t="s">
-        <v>401</v>
-      </c>
-      <c r="E66" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -12582,16 +12589,13 @@
         <v>319</v>
       </c>
       <c r="C67" t="s">
-        <v>395</v>
+        <v>599</v>
       </c>
       <c r="D67" t="s">
-        <v>438</v>
-      </c>
-      <c r="E67" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -12599,16 +12603,13 @@
         <v>338</v>
       </c>
       <c r="C68" t="s">
-        <v>468</v>
+        <v>399</v>
       </c>
       <c r="D68" t="s">
-        <v>396</v>
-      </c>
-      <c r="E68" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -12616,16 +12617,13 @@
         <v>321</v>
       </c>
       <c r="C69" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D69" t="s">
-        <v>416</v>
-      </c>
-      <c r="E69" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -12633,16 +12631,13 @@
         <v>322</v>
       </c>
       <c r="C70" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D70" t="s">
-        <v>402</v>
-      </c>
-      <c r="E70" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -12650,16 +12645,13 @@
         <v>314</v>
       </c>
       <c r="C71" t="s">
-        <v>402</v>
+        <v>623</v>
       </c>
       <c r="D71" t="s">
-        <v>392</v>
-      </c>
-      <c r="E71" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -12667,16 +12659,13 @@
         <v>339</v>
       </c>
       <c r="C72" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="D72" t="s">
-        <v>395</v>
-      </c>
-      <c r="E72" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -12684,16 +12673,13 @@
         <v>255</v>
       </c>
       <c r="C73" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D73" t="s">
-        <v>422</v>
-      </c>
-      <c r="E73" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -12701,16 +12687,13 @@
         <v>296</v>
       </c>
       <c r="C74" t="s">
-        <v>445</v>
+        <v>600</v>
       </c>
       <c r="D74" t="s">
-        <v>408</v>
-      </c>
-      <c r="E74" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12718,16 +12701,13 @@
         <v>228</v>
       </c>
       <c r="C75" t="s">
+        <v>411</v>
+      </c>
+      <c r="D75" t="s">
         <v>435</v>
       </c>
-      <c r="D75" t="s">
-        <v>392</v>
-      </c>
-      <c r="E75" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -12735,16 +12715,13 @@
         <v>229</v>
       </c>
       <c r="C76" t="s">
-        <v>469</v>
+        <v>587</v>
       </c>
       <c r="D76" t="s">
-        <v>393</v>
-      </c>
-      <c r="E76" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12752,16 +12729,13 @@
         <v>234</v>
       </c>
       <c r="C77" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D77" t="s">
-        <v>401</v>
-      </c>
-      <c r="E77" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12769,16 +12743,13 @@
         <v>235</v>
       </c>
       <c r="C78" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="D78" t="s">
-        <v>392</v>
-      </c>
-      <c r="E78" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -12786,16 +12757,13 @@
         <v>236</v>
       </c>
       <c r="C79" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D79" t="s">
-        <v>433</v>
-      </c>
-      <c r="E79" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -12803,16 +12771,13 @@
         <v>237</v>
       </c>
       <c r="C80" t="s">
-        <v>396</v>
+        <v>620</v>
       </c>
       <c r="D80" t="s">
-        <v>398</v>
-      </c>
-      <c r="E80" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -12820,16 +12785,13 @@
         <v>238</v>
       </c>
       <c r="C81" t="s">
-        <v>395</v>
+        <v>607</v>
       </c>
       <c r="D81" t="s">
-        <v>470</v>
-      </c>
-      <c r="E81" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -12837,16 +12799,13 @@
         <v>230</v>
       </c>
       <c r="C82" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="D82" t="s">
-        <v>443</v>
-      </c>
-      <c r="E82" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -12854,16 +12813,13 @@
         <v>340</v>
       </c>
       <c r="C83" t="s">
-        <v>392</v>
+        <v>621</v>
       </c>
       <c r="D83" t="s">
-        <v>409</v>
-      </c>
-      <c r="E83" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -12871,16 +12827,13 @@
         <v>233</v>
       </c>
       <c r="C84" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="D84" t="s">
-        <v>395</v>
-      </c>
-      <c r="E84" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -12888,16 +12841,13 @@
         <v>232</v>
       </c>
       <c r="C85" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D85" t="s">
-        <v>395</v>
-      </c>
-      <c r="E85" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -12905,16 +12855,13 @@
         <v>231</v>
       </c>
       <c r="C86" t="s">
-        <v>471</v>
+        <v>622</v>
       </c>
       <c r="D86" t="s">
-        <v>396</v>
-      </c>
-      <c r="E86" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -12922,16 +12869,13 @@
         <v>240</v>
       </c>
       <c r="C87" t="s">
-        <v>427</v>
+        <v>599</v>
       </c>
       <c r="D87" t="s">
-        <v>410</v>
-      </c>
-      <c r="E87" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -12939,16 +12883,13 @@
         <v>241</v>
       </c>
       <c r="C88" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D88" t="s">
-        <v>472</v>
-      </c>
-      <c r="E88" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -12956,16 +12897,13 @@
         <v>239</v>
       </c>
       <c r="C89" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="D89" t="s">
-        <v>473</v>
-      </c>
-      <c r="E89" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -12973,16 +12911,13 @@
         <v>243</v>
       </c>
       <c r="C90" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D90" t="s">
-        <v>414</v>
-      </c>
-      <c r="E90" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -12990,16 +12925,13 @@
         <v>244</v>
       </c>
       <c r="C91" t="s">
-        <v>401</v>
+        <v>623</v>
       </c>
       <c r="D91" t="s">
-        <v>395</v>
-      </c>
-      <c r="E91" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -13007,16 +12939,13 @@
         <v>245</v>
       </c>
       <c r="C92" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D92" t="s">
-        <v>395</v>
-      </c>
-      <c r="E92" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -13024,16 +12953,13 @@
         <v>242</v>
       </c>
       <c r="C93" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D93" t="s">
-        <v>474</v>
-      </c>
-      <c r="E93" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -13041,16 +12967,13 @@
         <v>246</v>
       </c>
       <c r="C94" t="s">
-        <v>390</v>
+        <v>600</v>
       </c>
       <c r="D94" t="s">
-        <v>391</v>
-      </c>
-      <c r="E94" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -13058,16 +12981,13 @@
         <v>247</v>
       </c>
       <c r="C95" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="D95" t="s">
-        <v>459</v>
-      </c>
-      <c r="E95" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -13075,16 +12995,13 @@
         <v>248</v>
       </c>
       <c r="C96" t="s">
-        <v>409</v>
+        <v>587</v>
       </c>
       <c r="D96" t="s">
-        <v>402</v>
-      </c>
-      <c r="E96" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -13092,16 +13009,13 @@
         <v>250</v>
       </c>
       <c r="C97" t="s">
-        <v>475</v>
+        <v>390</v>
       </c>
       <c r="D97" t="s">
-        <v>395</v>
-      </c>
-      <c r="E97" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -13109,16 +13023,13 @@
         <v>249</v>
       </c>
       <c r="C98" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="D98" t="s">
-        <v>427</v>
-      </c>
-      <c r="E98" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -13126,16 +13037,13 @@
         <v>251</v>
       </c>
       <c r="C99" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="D99" t="s">
-        <v>427</v>
-      </c>
-      <c r="E99" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -13143,13 +13051,10 @@
         <v>252</v>
       </c>
       <c r="C100" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D100" t="s">
-        <v>427</v>
-      </c>
-      <c r="E100" t="s">
-        <v>478</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/data/large/data1_4.xlsx
+++ b/data/large/data1_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\UCSP_code\large_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710F70DE-579B-4274-B675-DC461BDD0956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80214121-55C0-4042-9117-09EDE146D46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8210" yWindow="1090" windowWidth="19200" windowHeight="13880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CL" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="638">
   <si>
     <t>id</t>
   </si>
@@ -1197,9 +1197,6 @@
     <t>L_68</t>
   </si>
   <si>
-    <t>0,-1,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,1,0</t>
   </si>
   <si>
@@ -1230,24 +1227,12 @@
     <t>-1,0,0,0,0</t>
   </si>
   <si>
-    <t>1,-1,0,0,0</t>
-  </si>
-  <si>
     <t>1,0,0,0,0</t>
   </si>
   <si>
-    <t>1,0,0,0,1</t>
-  </si>
-  <si>
     <t>0,1,1,0,0</t>
   </si>
   <si>
-    <t>1,0,0,-1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,1</t>
-  </si>
-  <si>
     <t>0,0,-1,1,1</t>
   </si>
   <si>
@@ -1257,9 +1242,6 @@
     <t>0,1,0,-1,0</t>
   </si>
   <si>
-    <t>0,0,0,1,-1</t>
-  </si>
-  <si>
     <t>0,0,-1,0,0</t>
   </si>
   <si>
@@ -1275,18 +1257,9 @@
     <t>1,0,1,0,1</t>
   </si>
   <si>
-    <t>1,0,0,1,1</t>
-  </si>
-  <si>
     <t>0,-1,-1,0,0</t>
   </si>
   <si>
-    <t>0,0,1,-1,0</t>
-  </si>
-  <si>
-    <t>-1,0,0,-1,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,0</t>
   </si>
   <si>
@@ -1299,18 +1272,9 @@
     <t>-1,0,1,0,0</t>
   </si>
   <si>
-    <t>0,1,-1,0,0</t>
-  </si>
-  <si>
     <t>1,0,-1,0,0</t>
   </si>
   <si>
-    <t>-1,0,1,0,1</t>
-  </si>
-  <si>
-    <t>0,-1,1,0,1</t>
-  </si>
-  <si>
     <t>0,0,0,-1,-1</t>
   </si>
   <si>
@@ -1318,12 +1282,6 @@
   </si>
   <si>
     <t>-1,0,-1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,0,0,-1</t>
-  </si>
-  <si>
-    <t>-1,-1,0,0,0</t>
   </si>
   <si>
     <t>0,-1,0,0,1</t>
@@ -1826,30 +1784,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>-1,0,0,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,-1</t>
   </si>
   <si>
     <t>-1,0,-1,0,0</t>
   </si>
   <si>
-    <t>-1,-1,0,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,-1,1,-1</t>
   </si>
   <si>
-    <t>0,1,0,1,-1</t>
-  </si>
-  <si>
     <t>-1,0,0,1,0</t>
   </si>
   <si>
-    <t>1,0,-1,-1,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,0,-1</t>
   </si>
   <si>
@@ -1859,88 +1805,184 @@
     <t>0,0,-1,-1,0</t>
   </si>
   <si>
-    <t>0,1,1,1,0</t>
-  </si>
-  <si>
     <t>-1,1,0,1,0</t>
   </si>
   <si>
-    <t>-1,0,0,1,-1</t>
-  </si>
-  <si>
     <t>-1,1,0,0,0</t>
   </si>
   <si>
     <t>-1,-1,-1,-1,0</t>
   </si>
   <si>
-    <t>0,1,-1,-1,0</t>
-  </si>
-  <si>
-    <t>-1,-1,0,-1,-1</t>
-  </si>
-  <si>
     <t>1,0,1,0,-1</t>
   </si>
   <si>
-    <t>0,-1,-1,-1,0</t>
-  </si>
-  <si>
-    <t>1,0,-1,-1,1</t>
-  </si>
-  <si>
-    <t>0,-1,1,1,0</t>
-  </si>
-  <si>
-    <t>0,0,1,-1,1</t>
-  </si>
-  <si>
-    <t>1,0,-1,-1,0</t>
-  </si>
-  <si>
-    <t>-1,-1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,-1,1,0,-1</t>
-  </si>
-  <si>
-    <t>1,1,0,-1,-1</t>
-  </si>
-  <si>
-    <t>1,-1,0,1,0</t>
-  </si>
-  <si>
     <t>-1,1,0,0,1</t>
   </si>
   <si>
-    <t>1,1,0,1,-1</t>
-  </si>
-  <si>
-    <t>1,0,1,1,1</t>
-  </si>
-  <si>
-    <t>0,-1,-1,0,-1</t>
-  </si>
-  <si>
     <t>-1,1,0,-1,1</t>
   </si>
   <si>
-    <t>0,-1,0,1,1</t>
-  </si>
-  <si>
-    <t>1,-1,1,-1,-1</t>
-  </si>
-  <si>
-    <t>0,1,-1,1,0</t>
-  </si>
-  <si>
     <t>1,0,-1,0,-1</t>
   </si>
   <si>
     <t>-1,0,1,1,0</t>
   </si>
   <si>
-    <t>0,0,-1,1,-1</t>
+    <t>0,0,1,-1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,1,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,0,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,1,-1,0</t>
+  </si>
+  <si>
+    <t>1,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>1,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>-1,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>1,-1,1,1,0</t>
+  </si>
+  <si>
+    <t>1,-1,-1,-1,1</t>
+  </si>
+  <si>
+    <t>1,0,0,1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,1,-1,0</t>
+  </si>
+  <si>
+    <t>1,-1,1,0,0</t>
+  </si>
+  <si>
+    <t>0,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,0,1,0,0</t>
+  </si>
+  <si>
+    <t>-1,0,0,1,1</t>
+  </si>
+  <si>
+    <t>1,-1,-1,0,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,1,1</t>
+  </si>
+  <si>
+    <t>1,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,0,0,-1,1</t>
+  </si>
+  <si>
+    <t>1,0,1,-1,-1</t>
+  </si>
+  <si>
+    <t>1,1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,1,0,-1</t>
+  </si>
+  <si>
+    <t>1,0,-1,1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>-1,0,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,0,-1,0,1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,1,0</t>
+  </si>
+  <si>
+    <t>1,-1,0,-1,1</t>
+  </si>
+  <si>
+    <t>1,1,-1,0,0</t>
+  </si>
+  <si>
+    <t>1,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,1,-1,1</t>
+  </si>
+  <si>
+    <t>1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>1,1,0,0,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,0,1,1,0</t>
   </si>
 </sst>
 </file>
@@ -2399,7 +2441,7 @@
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2413,7 +2455,7 @@
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2427,7 +2469,7 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2441,7 +2483,7 @@
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2455,7 +2497,7 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2469,7 +2511,7 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2483,7 +2525,7 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2497,7 +2539,7 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2511,7 +2553,7 @@
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2525,7 +2567,7 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2539,7 +2581,7 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2553,7 +2595,7 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2567,7 +2609,7 @@
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2581,7 +2623,7 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2595,7 +2637,7 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2609,7 +2651,7 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2623,7 +2665,7 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2637,7 +2679,7 @@
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2651,7 +2693,7 @@
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2665,7 +2707,7 @@
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2679,7 +2721,7 @@
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2693,7 +2735,7 @@
         <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2707,7 +2749,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2721,7 +2763,7 @@
         <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2735,7 +2777,7 @@
         <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2749,7 +2791,7 @@
         <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2763,7 +2805,7 @@
         <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2777,7 +2819,7 @@
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2791,7 +2833,7 @@
         <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2805,7 +2847,7 @@
         <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2819,7 +2861,7 @@
         <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2833,7 +2875,7 @@
         <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2847,7 +2889,7 @@
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2861,7 +2903,7 @@
         <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2875,7 +2917,7 @@
         <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2889,7 +2931,7 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2903,7 +2945,7 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2917,7 +2959,7 @@
         <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2931,7 +2973,7 @@
         <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2945,7 +2987,7 @@
         <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2959,7 +3001,7 @@
         <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2973,7 +3015,7 @@
         <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2987,7 +3029,7 @@
         <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3001,7 +3043,7 @@
         <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3015,7 +3057,7 @@
         <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3029,7 +3071,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3043,7 +3085,7 @@
         <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -3096,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3211,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3536,7 +3578,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3637,7 +3679,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3696,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3937,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -3995,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>160</v>
@@ -4010,7 +4052,7 @@
         <v>323</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -4307,7 +4349,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>161</v>
@@ -4348,7 +4390,7 @@
         <v>323</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -5503,7 +5545,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>171</v>
@@ -5633,7 +5675,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>344</v>
@@ -5659,7 +5701,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>344</v>
@@ -5711,7 +5753,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>345</v>
@@ -5737,7 +5779,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>345</v>
@@ -5815,7 +5857,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>346</v>
@@ -5841,7 +5883,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>346</v>
@@ -5919,7 +5961,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>344</v>
@@ -5971,7 +6013,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>345</v>
@@ -6049,7 +6091,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>346</v>
@@ -6350,7 +6392,7 @@
         <v>324</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="H92" s="3">
         <v>1</v>
@@ -6517,7 +6559,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>348</v>
@@ -6532,7 +6574,7 @@
         <v>324</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="H99" s="6">
         <v>1</v>
@@ -6543,7 +6585,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>348</v>
@@ -6558,7 +6600,7 @@
         <v>324</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="H100" s="6">
         <v>1</v>
@@ -6569,7 +6611,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>348</v>
@@ -6584,7 +6626,7 @@
         <v>324</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="H101" s="6">
         <v>1</v>
@@ -6881,7 +6923,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>353</v>
@@ -6896,7 +6938,7 @@
         <v>324</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="H113" s="6">
         <v>1</v>
@@ -6907,7 +6949,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>353</v>
@@ -6922,7 +6964,7 @@
         <v>324</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="H114" s="6">
         <v>1</v>
@@ -6933,7 +6975,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>353</v>
@@ -6948,7 +6990,7 @@
         <v>324</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="H115" s="6">
         <v>1</v>
@@ -9975,7 +10017,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>223</v>
@@ -10316,16 +10358,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D111" sqref="D110:D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.08984375" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
     <col min="4" max="4" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10340,7 +10381,7 @@
         <v>327</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10351,10 +10392,10 @@
         <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>408</v>
+        <v>574</v>
       </c>
       <c r="D2" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10365,10 +10406,10 @@
         <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="D3" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -10379,10 +10420,10 @@
         <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>390</v>
+        <v>627</v>
       </c>
       <c r="D4" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -10393,10 +10434,10 @@
         <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D5" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -10407,10 +10448,10 @@
         <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="D6" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -10421,10 +10462,10 @@
         <v>328</v>
       </c>
       <c r="C7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D7" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -10435,10 +10476,10 @@
         <v>329</v>
       </c>
       <c r="C8" t="s">
-        <v>424</v>
+        <v>574</v>
       </c>
       <c r="D8" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -10449,10 +10490,10 @@
         <v>330</v>
       </c>
       <c r="C9" t="s">
-        <v>405</v>
+        <v>626</v>
       </c>
       <c r="D9" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -10463,10 +10504,10 @@
         <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D10" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -10477,10 +10518,10 @@
         <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>414</v>
+        <v>628</v>
       </c>
       <c r="D11" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -10491,10 +10532,10 @@
         <v>176</v>
       </c>
       <c r="C12" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="D12" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -10505,10 +10546,10 @@
         <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>585</v>
+        <v>392</v>
       </c>
       <c r="D13" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -10519,10 +10560,10 @@
         <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D14" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -10533,10 +10574,10 @@
         <v>179</v>
       </c>
       <c r="C15" t="s">
-        <v>394</v>
+        <v>629</v>
       </c>
       <c r="D15" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -10547,10 +10588,10 @@
         <v>180</v>
       </c>
       <c r="C16" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D16" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -10561,10 +10602,10 @@
         <v>181</v>
       </c>
       <c r="C17" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="D17" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -10575,10 +10616,10 @@
         <v>182</v>
       </c>
       <c r="C18" t="s">
-        <v>414</v>
+        <v>571</v>
       </c>
       <c r="D18" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -10589,10 +10630,10 @@
         <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D19" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -10603,10 +10644,10 @@
         <v>184</v>
       </c>
       <c r="C20" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="D20" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -10617,10 +10658,10 @@
         <v>185</v>
       </c>
       <c r="C21" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="D21" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -10631,10 +10672,10 @@
         <v>186</v>
       </c>
       <c r="C22" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="D22" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -10645,10 +10686,10 @@
         <v>187</v>
       </c>
       <c r="C23" t="s">
-        <v>394</v>
+        <v>584</v>
       </c>
       <c r="D23" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -10659,10 +10700,10 @@
         <v>188</v>
       </c>
       <c r="C24" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D24" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -10673,10 +10714,10 @@
         <v>189</v>
       </c>
       <c r="C25" t="s">
-        <v>408</v>
+        <v>630</v>
       </c>
       <c r="D25" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -10687,10 +10728,10 @@
         <v>190</v>
       </c>
       <c r="C26" t="s">
-        <v>586</v>
+        <v>631</v>
       </c>
       <c r="D26" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -10701,10 +10742,10 @@
         <v>191</v>
       </c>
       <c r="C27" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="D27" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -10715,10 +10756,10 @@
         <v>192</v>
       </c>
       <c r="C28" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="D28" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -10729,10 +10770,10 @@
         <v>193</v>
       </c>
       <c r="C29" t="s">
-        <v>394</v>
+        <v>575</v>
       </c>
       <c r="D29" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -10743,10 +10784,10 @@
         <v>194</v>
       </c>
       <c r="C30" t="s">
-        <v>427</v>
+        <v>632</v>
       </c>
       <c r="D30" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -10757,10 +10798,10 @@
         <v>195</v>
       </c>
       <c r="C31" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="D31" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -10771,10 +10812,10 @@
         <v>331</v>
       </c>
       <c r="C32" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="D32" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -10785,10 +10826,10 @@
         <v>196</v>
       </c>
       <c r="C33" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="D33" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -10799,10 +10840,10 @@
         <v>197</v>
       </c>
       <c r="C34" t="s">
-        <v>402</v>
+        <v>571</v>
       </c>
       <c r="D34" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -10813,10 +10854,10 @@
         <v>198</v>
       </c>
       <c r="C35" t="s">
-        <v>428</v>
+        <v>633</v>
       </c>
       <c r="D35" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -10827,10 +10868,10 @@
         <v>332</v>
       </c>
       <c r="C36" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D36" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -10841,10 +10882,10 @@
         <v>199</v>
       </c>
       <c r="C37" t="s">
-        <v>390</v>
+        <v>576</v>
       </c>
       <c r="D37" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -10855,10 +10896,10 @@
         <v>200</v>
       </c>
       <c r="C38" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="D38" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -10869,10 +10910,10 @@
         <v>201</v>
       </c>
       <c r="C39" t="s">
-        <v>588</v>
+        <v>394</v>
       </c>
       <c r="D39" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -10883,10 +10924,10 @@
         <v>333</v>
       </c>
       <c r="C40" t="s">
-        <v>397</v>
+        <v>586</v>
       </c>
       <c r="D40" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -10897,10 +10938,10 @@
         <v>202</v>
       </c>
       <c r="C41" t="s">
-        <v>428</v>
+        <v>634</v>
       </c>
       <c r="D41" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -10911,10 +10952,10 @@
         <v>203</v>
       </c>
       <c r="C42" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D42" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -10925,10 +10966,10 @@
         <v>204</v>
       </c>
       <c r="C43" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="D43" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -10939,10 +10980,10 @@
         <v>205</v>
       </c>
       <c r="C44" t="s">
-        <v>590</v>
+        <v>400</v>
       </c>
       <c r="D44" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -10956,7 +10997,7 @@
         <v>391</v>
       </c>
       <c r="D45" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -10967,10 +11008,10 @@
         <v>207</v>
       </c>
       <c r="C46" t="s">
-        <v>414</v>
+        <v>592</v>
       </c>
       <c r="D46" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -10981,10 +11022,10 @@
         <v>208</v>
       </c>
       <c r="C47" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D47" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -10995,10 +11036,10 @@
         <v>209</v>
       </c>
       <c r="C48" t="s">
-        <v>591</v>
+        <v>406</v>
       </c>
       <c r="D48" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -11009,10 +11050,10 @@
         <v>210</v>
       </c>
       <c r="C49" t="s">
-        <v>592</v>
+        <v>635</v>
       </c>
       <c r="D49" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -11023,10 +11064,10 @@
         <v>211</v>
       </c>
       <c r="C50" t="s">
-        <v>593</v>
+        <v>393</v>
       </c>
       <c r="D50" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -11037,10 +11078,10 @@
         <v>212</v>
       </c>
       <c r="C51" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="D51" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -11051,10 +11092,10 @@
         <v>213</v>
       </c>
       <c r="C52" t="s">
-        <v>395</v>
+        <v>636</v>
       </c>
       <c r="D52" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -11065,10 +11106,10 @@
         <v>214</v>
       </c>
       <c r="C53" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D53" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -11079,10 +11120,10 @@
         <v>215</v>
       </c>
       <c r="C54" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="D54" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -11093,10 +11134,10 @@
         <v>216</v>
       </c>
       <c r="C55" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D55" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -11107,10 +11148,10 @@
         <v>217</v>
       </c>
       <c r="C56" t="s">
-        <v>587</v>
+        <v>392</v>
       </c>
       <c r="D56" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -11121,10 +11162,10 @@
         <v>334</v>
       </c>
       <c r="C57" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D57" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -11135,10 +11176,10 @@
         <v>218</v>
       </c>
       <c r="C58" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="D58" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -11149,10 +11190,10 @@
         <v>219</v>
       </c>
       <c r="C59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D59" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -11163,10 +11204,10 @@
         <v>220</v>
       </c>
       <c r="C60" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D60" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -11177,10 +11218,10 @@
         <v>221</v>
       </c>
       <c r="C61" t="s">
-        <v>429</v>
+        <v>626</v>
       </c>
       <c r="D61" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -11191,10 +11232,10 @@
         <v>335</v>
       </c>
       <c r="C62" t="s">
-        <v>411</v>
+        <v>575</v>
       </c>
       <c r="D62" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -11205,10 +11246,10 @@
         <v>336</v>
       </c>
       <c r="C63" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D63" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -11219,10 +11260,10 @@
         <v>222</v>
       </c>
       <c r="C64" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D64" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -11233,10 +11274,10 @@
         <v>223</v>
       </c>
       <c r="C65" t="s">
-        <v>593</v>
+        <v>398</v>
       </c>
       <c r="D65" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -11247,10 +11288,10 @@
         <v>224</v>
       </c>
       <c r="C66" t="s">
-        <v>393</v>
+        <v>580</v>
       </c>
       <c r="D66" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -11261,10 +11302,10 @@
         <v>225</v>
       </c>
       <c r="C67" t="s">
-        <v>594</v>
+        <v>390</v>
       </c>
       <c r="D67" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -11275,10 +11316,10 @@
         <v>226</v>
       </c>
       <c r="C68" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="D68" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -11289,10 +11330,10 @@
         <v>227</v>
       </c>
       <c r="C69" t="s">
-        <v>393</v>
+        <v>637</v>
       </c>
       <c r="D69" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -11303,10 +11344,10 @@
         <v>160</v>
       </c>
       <c r="C70" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="D70" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -11317,10 +11358,10 @@
         <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>398</v>
+        <v>594</v>
       </c>
       <c r="D71" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -11331,10 +11372,10 @@
         <v>162</v>
       </c>
       <c r="C72" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D72" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -11345,10 +11386,10 @@
         <v>163</v>
       </c>
       <c r="C73" t="s">
-        <v>431</v>
+        <v>581</v>
       </c>
       <c r="D73" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -11359,10 +11400,10 @@
         <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>418</v>
+        <v>571</v>
       </c>
       <c r="D74" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -11373,10 +11414,10 @@
         <v>165</v>
       </c>
       <c r="C75" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="D75" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -11387,10 +11428,10 @@
         <v>166</v>
       </c>
       <c r="C76" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D76" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -11401,10 +11442,10 @@
         <v>167</v>
       </c>
       <c r="C77" t="s">
-        <v>432</v>
+        <v>618</v>
       </c>
       <c r="D77" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -11415,225 +11456,10 @@
         <v>168</v>
       </c>
       <c r="C78" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="D78" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
-        <v>391</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -11646,8 +11472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -11663,10 +11489,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D1" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="1"/>
@@ -11679,10 +11505,10 @@
         <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>425</v>
+        <v>586</v>
       </c>
       <c r="D2" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -11693,10 +11519,10 @@
         <v>256</v>
       </c>
       <c r="C3" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D3" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -11707,10 +11533,10 @@
         <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>391</v>
+        <v>572</v>
       </c>
       <c r="D4" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11721,10 +11547,10 @@
         <v>258</v>
       </c>
       <c r="C5" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="D5" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -11735,10 +11561,10 @@
         <v>259</v>
       </c>
       <c r="C6" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="D6" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -11749,10 +11575,10 @@
         <v>260</v>
       </c>
       <c r="C7" t="s">
-        <v>594</v>
+        <v>398</v>
       </c>
       <c r="D7" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -11763,10 +11589,10 @@
         <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>392</v>
+        <v>589</v>
       </c>
       <c r="D8" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -11777,10 +11603,10 @@
         <v>337</v>
       </c>
       <c r="C9" t="s">
-        <v>602</v>
+        <v>402</v>
       </c>
       <c r="D9" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -11791,10 +11617,10 @@
         <v>262</v>
       </c>
       <c r="C10" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="D10" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -11805,10 +11631,10 @@
         <v>263</v>
       </c>
       <c r="C11" t="s">
-        <v>399</v>
+        <v>589</v>
       </c>
       <c r="D11" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -11819,10 +11645,10 @@
         <v>264</v>
       </c>
       <c r="C12" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="D12" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -11833,10 +11659,10 @@
         <v>265</v>
       </c>
       <c r="C13" t="s">
-        <v>420</v>
+        <v>591</v>
       </c>
       <c r="D13" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -11847,10 +11673,10 @@
         <v>266</v>
       </c>
       <c r="C14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D14" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -11861,10 +11687,10 @@
         <v>267</v>
       </c>
       <c r="C15" t="s">
-        <v>394</v>
+        <v>593</v>
       </c>
       <c r="D15" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -11875,10 +11701,10 @@
         <v>268</v>
       </c>
       <c r="C16" t="s">
-        <v>394</v>
+        <v>594</v>
       </c>
       <c r="D16" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -11889,10 +11715,10 @@
         <v>269</v>
       </c>
       <c r="C17" t="s">
-        <v>392</v>
+        <v>595</v>
       </c>
       <c r="D17" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -11903,10 +11729,10 @@
         <v>270</v>
       </c>
       <c r="C18" t="s">
-        <v>411</v>
+        <v>584</v>
       </c>
       <c r="D18" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -11917,10 +11743,10 @@
         <v>271</v>
       </c>
       <c r="C19" t="s">
-        <v>422</v>
+        <v>578</v>
       </c>
       <c r="D19" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -11931,10 +11757,10 @@
         <v>272</v>
       </c>
       <c r="C20" t="s">
-        <v>605</v>
+        <v>399</v>
       </c>
       <c r="D20" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -11945,10 +11771,10 @@
         <v>273</v>
       </c>
       <c r="C21" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="D21" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -11959,10 +11785,10 @@
         <v>274</v>
       </c>
       <c r="C22" t="s">
-        <v>414</v>
+        <v>596</v>
       </c>
       <c r="D22" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -11973,10 +11799,10 @@
         <v>275</v>
       </c>
       <c r="C23" t="s">
-        <v>408</v>
+        <v>583</v>
       </c>
       <c r="D23" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -11987,10 +11813,10 @@
         <v>276</v>
       </c>
       <c r="C24" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D24" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -12001,10 +11827,10 @@
         <v>277</v>
       </c>
       <c r="C25" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="D25" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -12015,10 +11841,10 @@
         <v>278</v>
       </c>
       <c r="C26" t="s">
-        <v>411</v>
+        <v>597</v>
       </c>
       <c r="D26" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -12029,10 +11855,10 @@
         <v>279</v>
       </c>
       <c r="C27" t="s">
-        <v>393</v>
+        <v>575</v>
       </c>
       <c r="D27" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -12043,10 +11869,10 @@
         <v>280</v>
       </c>
       <c r="C28" t="s">
-        <v>412</v>
+        <v>598</v>
       </c>
       <c r="D28" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -12057,10 +11883,10 @@
         <v>281</v>
       </c>
       <c r="C29" t="s">
-        <v>595</v>
+        <v>398</v>
       </c>
       <c r="D29" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -12071,10 +11897,10 @@
         <v>282</v>
       </c>
       <c r="C30" t="s">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D30" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -12085,10 +11911,10 @@
         <v>283</v>
       </c>
       <c r="C31" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="D31" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -12099,10 +11925,10 @@
         <v>284</v>
       </c>
       <c r="C32" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D32" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -12113,10 +11939,10 @@
         <v>285</v>
       </c>
       <c r="C33" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="D33" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -12127,10 +11953,10 @@
         <v>286</v>
       </c>
       <c r="C34" t="s">
-        <v>607</v>
+        <v>411</v>
       </c>
       <c r="D34" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -12141,10 +11967,10 @@
         <v>287</v>
       </c>
       <c r="C35" t="s">
-        <v>608</v>
+        <v>577</v>
       </c>
       <c r="D35" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -12155,10 +11981,10 @@
         <v>288</v>
       </c>
       <c r="C36" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="D36" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -12169,10 +11995,10 @@
         <v>289</v>
       </c>
       <c r="C37" t="s">
-        <v>398</v>
+        <v>572</v>
       </c>
       <c r="D37" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -12183,10 +12009,10 @@
         <v>290</v>
       </c>
       <c r="C38" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D38" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -12197,10 +12023,10 @@
         <v>291</v>
       </c>
       <c r="C39" t="s">
-        <v>399</v>
+        <v>602</v>
       </c>
       <c r="D39" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -12211,10 +12037,10 @@
         <v>292</v>
       </c>
       <c r="C40" t="s">
-        <v>611</v>
+        <v>403</v>
       </c>
       <c r="D40" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -12225,10 +12051,10 @@
         <v>293</v>
       </c>
       <c r="C41" t="s">
-        <v>612</v>
+        <v>400</v>
       </c>
       <c r="D41" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -12239,10 +12065,10 @@
         <v>294</v>
       </c>
       <c r="C42" t="s">
-        <v>407</v>
+        <v>603</v>
       </c>
       <c r="D42" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -12253,10 +12079,10 @@
         <v>295</v>
       </c>
       <c r="C43" t="s">
-        <v>613</v>
+        <v>575</v>
       </c>
       <c r="D43" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -12267,10 +12093,10 @@
         <v>297</v>
       </c>
       <c r="C44" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D44" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -12281,10 +12107,10 @@
         <v>298</v>
       </c>
       <c r="C45" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="D45" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -12295,10 +12121,10 @@
         <v>299</v>
       </c>
       <c r="C46" t="s">
-        <v>615</v>
+        <v>402</v>
       </c>
       <c r="D46" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -12309,10 +12135,10 @@
         <v>300</v>
       </c>
       <c r="C47" t="s">
-        <v>616</v>
+        <v>401</v>
       </c>
       <c r="D47" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -12323,10 +12149,10 @@
         <v>301</v>
       </c>
       <c r="C48" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="D48" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -12337,10 +12163,10 @@
         <v>302</v>
       </c>
       <c r="C49" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="D49" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -12351,10 +12177,10 @@
         <v>303</v>
       </c>
       <c r="C50" t="s">
-        <v>391</v>
+        <v>591</v>
       </c>
       <c r="D50" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -12365,10 +12191,10 @@
         <v>304</v>
       </c>
       <c r="C51" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="D51" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -12379,10 +12205,10 @@
         <v>305</v>
       </c>
       <c r="C52" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="D52" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -12393,10 +12219,10 @@
         <v>306</v>
       </c>
       <c r="C53" t="s">
-        <v>416</v>
+        <v>606</v>
       </c>
       <c r="D53" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -12407,10 +12233,10 @@
         <v>307</v>
       </c>
       <c r="C54" t="s">
-        <v>425</v>
+        <v>607</v>
       </c>
       <c r="D54" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -12421,10 +12247,10 @@
         <v>308</v>
       </c>
       <c r="C55" t="s">
-        <v>409</v>
+        <v>608</v>
       </c>
       <c r="D55" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -12435,10 +12261,10 @@
         <v>309</v>
       </c>
       <c r="C56" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="D56" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -12449,10 +12275,10 @@
         <v>310</v>
       </c>
       <c r="C57" t="s">
-        <v>393</v>
+        <v>600</v>
       </c>
       <c r="D57" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -12463,10 +12289,10 @@
         <v>311</v>
       </c>
       <c r="C58" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="D58" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -12477,10 +12303,10 @@
         <v>254</v>
       </c>
       <c r="C59" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="D59" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -12491,10 +12317,10 @@
         <v>312</v>
       </c>
       <c r="C60" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="D60" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -12505,10 +12331,10 @@
         <v>313</v>
       </c>
       <c r="C61" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D61" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -12519,10 +12345,10 @@
         <v>315</v>
       </c>
       <c r="C62" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D62" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -12533,10 +12359,10 @@
         <v>316</v>
       </c>
       <c r="C63" t="s">
-        <v>621</v>
+        <v>399</v>
       </c>
       <c r="D63" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -12547,10 +12373,10 @@
         <v>317</v>
       </c>
       <c r="C64" t="s">
-        <v>417</v>
+        <v>578</v>
       </c>
       <c r="D64" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -12561,10 +12387,10 @@
         <v>320</v>
       </c>
       <c r="C65" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D65" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -12575,10 +12401,10 @@
         <v>318</v>
       </c>
       <c r="C66" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="D66" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -12589,10 +12415,10 @@
         <v>319</v>
       </c>
       <c r="C67" t="s">
-        <v>599</v>
+        <v>396</v>
       </c>
       <c r="D67" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -12603,10 +12429,10 @@
         <v>338</v>
       </c>
       <c r="C68" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D68" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -12617,10 +12443,10 @@
         <v>321</v>
       </c>
       <c r="C69" t="s">
-        <v>403</v>
+        <v>613</v>
       </c>
       <c r="D69" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -12631,10 +12457,10 @@
         <v>322</v>
       </c>
       <c r="C70" t="s">
-        <v>399</v>
+        <v>614</v>
       </c>
       <c r="D70" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -12645,10 +12471,10 @@
         <v>314</v>
       </c>
       <c r="C71" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="D71" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -12659,10 +12485,10 @@
         <v>339</v>
       </c>
       <c r="C72" t="s">
-        <v>426</v>
+        <v>616</v>
       </c>
       <c r="D72" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -12673,10 +12499,10 @@
         <v>255</v>
       </c>
       <c r="C73" t="s">
-        <v>402</v>
+        <v>596</v>
       </c>
       <c r="D73" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -12687,10 +12513,10 @@
         <v>296</v>
       </c>
       <c r="C74" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="D74" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -12701,10 +12527,10 @@
         <v>228</v>
       </c>
       <c r="C75" t="s">
-        <v>411</v>
+        <v>618</v>
       </c>
       <c r="D75" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -12715,10 +12541,10 @@
         <v>229</v>
       </c>
       <c r="C76" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
       <c r="D76" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -12729,10 +12555,10 @@
         <v>234</v>
       </c>
       <c r="C77" t="s">
-        <v>390</v>
+        <v>573</v>
       </c>
       <c r="D77" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -12743,10 +12569,10 @@
         <v>235</v>
       </c>
       <c r="C78" t="s">
-        <v>423</v>
+        <v>619</v>
       </c>
       <c r="D78" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -12757,10 +12583,10 @@
         <v>236</v>
       </c>
       <c r="C79" t="s">
-        <v>411</v>
+        <v>591</v>
       </c>
       <c r="D79" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -12771,10 +12597,10 @@
         <v>237</v>
       </c>
       <c r="C80" t="s">
-        <v>620</v>
+        <v>391</v>
       </c>
       <c r="D80" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -12785,10 +12611,10 @@
         <v>238</v>
       </c>
       <c r="C81" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="D81" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -12799,10 +12625,10 @@
         <v>230</v>
       </c>
       <c r="C82" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="D82" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -12816,7 +12642,7 @@
         <v>621</v>
       </c>
       <c r="D83" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -12827,10 +12653,10 @@
         <v>233</v>
       </c>
       <c r="C84" t="s">
-        <v>417</v>
+        <v>622</v>
       </c>
       <c r="D84" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -12841,10 +12667,10 @@
         <v>232</v>
       </c>
       <c r="C85" t="s">
-        <v>390</v>
+        <v>623</v>
       </c>
       <c r="D85" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -12855,10 +12681,10 @@
         <v>231</v>
       </c>
       <c r="C86" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D86" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -12869,10 +12695,10 @@
         <v>240</v>
       </c>
       <c r="C87" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="D87" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -12883,10 +12709,10 @@
         <v>241</v>
       </c>
       <c r="C88" t="s">
-        <v>399</v>
+        <v>626</v>
       </c>
       <c r="D88" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -12897,10 +12723,10 @@
         <v>239</v>
       </c>
       <c r="C89" t="s">
-        <v>403</v>
+        <v>573</v>
       </c>
       <c r="D89" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -12911,10 +12737,10 @@
         <v>243</v>
       </c>
       <c r="C90" t="s">
-        <v>399</v>
+        <v>619</v>
       </c>
       <c r="D90" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -12925,10 +12751,10 @@
         <v>244</v>
       </c>
       <c r="C91" t="s">
-        <v>623</v>
+        <v>591</v>
       </c>
       <c r="D91" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -12939,10 +12765,10 @@
         <v>245</v>
       </c>
       <c r="C92" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="D92" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -12953,10 +12779,10 @@
         <v>242</v>
       </c>
       <c r="C93" t="s">
-        <v>402</v>
+        <v>620</v>
       </c>
       <c r="D93" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -12967,10 +12793,10 @@
         <v>246</v>
       </c>
       <c r="C94" t="s">
-        <v>600</v>
+        <v>401</v>
       </c>
       <c r="D94" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -12981,10 +12807,10 @@
         <v>247</v>
       </c>
       <c r="C95" t="s">
-        <v>411</v>
+        <v>621</v>
       </c>
       <c r="D95" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -12995,10 +12821,10 @@
         <v>248</v>
       </c>
       <c r="C96" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="D96" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -13009,10 +12835,10 @@
         <v>250</v>
       </c>
       <c r="C97" t="s">
-        <v>390</v>
+        <v>619</v>
       </c>
       <c r="D97" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -13023,10 +12849,10 @@
         <v>249</v>
       </c>
       <c r="C98" t="s">
-        <v>423</v>
+        <v>591</v>
       </c>
       <c r="D98" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -13037,10 +12863,10 @@
         <v>251</v>
       </c>
       <c r="C99" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="D99" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -13051,10 +12877,10 @@
         <v>252</v>
       </c>
       <c r="C100" t="s">
-        <v>402</v>
+        <v>620</v>
       </c>
       <c r="D100" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
